--- a/Document/Database.xlsx
+++ b/Document/Database.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9707" activeTab="7"/>
+    <workbookView windowWidth="22188" windowHeight="9707" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="T_Challange" sheetId="1" r:id="rId1"/>
-    <sheet name="T_Reward" sheetId="6" r:id="rId2"/>
-    <sheet name="T_Chategorie" sheetId="2" r:id="rId3"/>
-    <sheet name="T_User" sheetId="3" r:id="rId4"/>
-    <sheet name="T_User_Challange" sheetId="4" r:id="rId5"/>
-    <sheet name="T_Proof" sheetId="5" r:id="rId6"/>
-    <sheet name="T_Leaderboad" sheetId="8" r:id="rId7"/>
-    <sheet name="T_Motivation" sheetId="9" r:id="rId8"/>
+    <sheet name="Tabel" sheetId="10" r:id="rId1"/>
+    <sheet name="T_Chategorie" sheetId="2" r:id="rId2"/>
+    <sheet name="T_Challange" sheetId="1" r:id="rId3"/>
+    <sheet name="T_Reward" sheetId="6" r:id="rId4"/>
+    <sheet name="T_User" sheetId="3" r:id="rId5"/>
+    <sheet name="T_User_Challange" sheetId="4" r:id="rId6"/>
+    <sheet name="T_Proof" sheetId="5" r:id="rId7"/>
+    <sheet name="T_Leaderboad" sheetId="8" r:id="rId8"/>
+    <sheet name="T_Motivation" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,65 +35,116 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="104">
   <si>
     <t>Nama Table</t>
   </si>
   <si>
+    <t>Table Chategorie</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Menyimpan data categories challange</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Primary / Foreign Key</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Mandatory (Y/N)</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>CATEGORIEID</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
+  </si>
+  <si>
+    <t>VARCHAR(25)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Id unique chategorie</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>CATEGORYNAME</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>nama chategorie</t>
+  </si>
+  <si>
+    <t>CATEGORYDESCRIPTION</t>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+  </si>
+  <si>
+    <t>Description chategories</t>
+  </si>
+  <si>
+    <t>CREATEDAT</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>tanggal chategories dibuat</t>
+  </si>
+  <si>
+    <t>UPDATEDAT</t>
+  </si>
+  <si>
+    <t>tanggal chategories diupdate</t>
+  </si>
+  <si>
     <t>Table Challanges</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
     <t>Table untuk menyimpan challanges secara umum untuk ditampilan di menu browse challangess.</t>
   </si>
   <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>Primary / Foreign Key</t>
-  </si>
-  <si>
-    <t>Data Type</t>
-  </si>
-  <si>
-    <t>Mandatory (Y/N)</t>
-  </si>
-  <si>
     <t>CHALLANGEID</t>
   </si>
   <si>
-    <t>Primary Key</t>
-  </si>
-  <si>
     <t>VARCHAR(50)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Id unique challange</t>
   </si>
   <si>
+    <t>CHA + CATEGORY CODE (00001) + CHALLANGE SEQ (000001)</t>
+  </si>
+  <si>
     <t>CHATEGORIEID</t>
   </si>
   <si>
     <t>Foreign Key</t>
   </si>
   <si>
-    <t>VARCHAR(25)</t>
-  </si>
-  <si>
-    <t>Id unique chategorie</t>
+    <t>CATEGORY CODE (00001)</t>
   </si>
   <si>
     <t>CHALLANGENAME</t>
   </si>
   <si>
-    <t>VARCHAR(255)</t>
-  </si>
-  <si>
     <t>nama challange</t>
   </si>
   <si>
@@ -105,18 +157,18 @@
     <t>Description challanges</t>
   </si>
   <si>
-    <t>CREATEDAT</t>
-  </si>
-  <si>
-    <t>DATE</t>
+    <t>CHALLANGEPARTICIPATENUMBER</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Jumlah orang yang mengikutin challanges</t>
   </si>
   <si>
     <t>tanggal challanges dibuat</t>
   </si>
   <si>
-    <t>UPDATEDAT</t>
-  </si>
-  <si>
     <t>tanggal challanges diupdate</t>
   </si>
   <si>
@@ -129,39 +181,9 @@
     <t>REWARDPOINT</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>point yang didapat</t>
   </si>
   <si>
-    <t>Table Chategorie</t>
-  </si>
-  <si>
-    <t>Menyimpan data categories challange</t>
-  </si>
-  <si>
-    <t>CHATEGORIENAME</t>
-  </si>
-  <si>
-    <t>nama chategorie</t>
-  </si>
-  <si>
-    <t>CHATEGORIEDESCRIPTION</t>
-  </si>
-  <si>
-    <t>VARCHAR(500)</t>
-  </si>
-  <si>
-    <t>Description chategories</t>
-  </si>
-  <si>
-    <t>tanggal chategories dibuat</t>
-  </si>
-  <si>
-    <t>tanggal chategories diupdate</t>
-  </si>
-  <si>
     <t>Table User</t>
   </si>
   <si>
@@ -174,6 +196,9 @@
     <t>Id unique user</t>
   </si>
   <si>
+    <t>USR + 000001</t>
+  </si>
+  <si>
     <t>USERNAME</t>
   </si>
   <si>
@@ -195,16 +220,13 @@
     <t>Default value</t>
   </si>
   <si>
-    <t>values</t>
-  </si>
-  <si>
     <t>USERCHALLANGEID</t>
   </si>
   <si>
     <t>Id unique user challange id</t>
   </si>
   <si>
-    <t>Code: "UC + USERID + CHALLANGEID + SEQUENCE CODE"</t>
+    <t>USRUC + USERID + CHALLANGEID + SEQUENCE CODE"</t>
   </si>
   <si>
     <t>PROGRESS</t>
@@ -250,6 +272,9 @@
   </si>
   <si>
     <t>id unique proof</t>
+  </si>
+  <si>
+    <t>Code: "UC + USERID + CHALLANGEID + SEQUENCE CODE"</t>
   </si>
   <si>
     <t>PROOFFILEPATH</t>
@@ -338,7 +363,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,13 +391,6 @@
       <color rgb="FF0C0D0E"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -843,164 +861,160 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1017,7 +1031,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1026,25 +1039,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1364,159 +1366,375 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:F15"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B4:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="22.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.7777777777778" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7777777777778" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.7777777777778" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="25.7777777777778" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49.4444444444444" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" s="1" customFormat="1" spans="2:6">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:6">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:7">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:7">
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:7">
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:7">
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:7">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:7">
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" ht="15" spans="3:3">
+      <c r="C15" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B4:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="28.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49.4444444444444" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="6" t="s">
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10" t="s">
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="9" t="s">
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="10" t="s">
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="10" t="s">
+      <c r="E13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="2:3">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="16" ht="15" spans="2:3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1528,13 +1746,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B4:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1552,394 +1770,93 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:6">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:6">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:6">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:6">
+      <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="2:6">
-      <c r="B9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>12</v>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:6">
-      <c r="B10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>32</v>
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="15" spans="2:3">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B4:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B11:B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="23.1111111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7777777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7777777777778" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" s="1" customFormat="1" spans="2:6">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:6">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="4:4">
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:6">
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:6">
-      <c r="B8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="2:6">
-      <c r="B9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:6">
-      <c r="B10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:6">
-      <c r="B11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="2:6">
-      <c r="B12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="15" ht="15" spans="3:3">
-      <c r="C15" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B4:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="23.1111111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7777777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7777777777778" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" s="1" customFormat="1" spans="2:6">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:6">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="4:4">
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:6">
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:6">
-      <c r="B8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="2:6">
-      <c r="B9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:6">
-      <c r="B10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:6">
-      <c r="B11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="3:6">
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15" spans="3:3">
-      <c r="C14" s="15"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1954,10 +1871,165 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B4:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="23.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7777777777778" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49.4444444444444" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" s="1" customFormat="1" spans="2:6">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:6">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:7">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:7">
+      <c r="B8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:7">
+      <c r="B9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:7">
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:7">
+      <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:7">
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15" spans="3:7">
+      <c r="C14" s="12"/>
+      <c r="G14" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B4:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -1977,168 +2049,165 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:7">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:8">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:8">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:8">
+      <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="4:4">
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="2:8">
-      <c r="B9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:8">
-      <c r="B10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="55.2" spans="2:8">
-      <c r="B11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>60</v>
+      <c r="B11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:8">
-      <c r="B12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="B12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:8">
-      <c r="B13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="B13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="15" spans="3:3">
-      <c r="C15" s="15"/>
+      <c r="C15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2150,13 +2219,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B4:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -2176,147 +2245,144 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:7">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="4:4">
-      <c r="D6" s="5"/>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>53</v>
+      <c r="G7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:8">
+      <c r="B9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:8">
+      <c r="B10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27.6" spans="2:8">
+      <c r="B11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:8">
+      <c r="B12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="2:8">
-      <c r="B9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:8">
-      <c r="B10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27.6" spans="2:8">
-      <c r="B11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="2:8">
-      <c r="B12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15" spans="3:3">
-      <c r="C14" s="15"/>
+      <c r="C14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2328,7 +2394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B4:H13"/>
@@ -2354,118 +2420,115 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:7">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="4:4">
-      <c r="D6" s="5"/>
+      <c r="C5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:8">
+      <c r="B8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:8">
+      <c r="B9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="2:8">
-      <c r="B9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:8">
-      <c r="B10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
+      <c r="B10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:8">
-      <c r="B11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
+      <c r="B11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="15" spans="3:3">
-      <c r="C13" s="15"/>
+      <c r="C13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2477,12 +2540,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B4:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2503,124 +2566,121 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:7">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="4:4">
-      <c r="D6" s="5"/>
+      <c r="C5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>53</v>
+      <c r="G7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:8">
-      <c r="B9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="B9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:8">
-      <c r="B10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
+      <c r="B10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:8">
-      <c r="B11" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
+      <c r="B11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="15" spans="3:3">
-      <c r="C13" s="15"/>
+      <c r="C13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
